--- a/app/Files/LibroDiario.xlsx
+++ b/app/Files/LibroDiario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Libro Diario</t>
   </si>
@@ -35,9 +35,6 @@
     <t>TRANSACCIÓN</t>
   </si>
   <si>
-    <t>Fecha de inicio</t>
-  </si>
-  <si>
     <t>Tipo de Transacción</t>
   </si>
   <si>
@@ -69,6 +66,12 @@
   </si>
   <si>
     <t>REF</t>
+  </si>
+  <si>
+    <t>Fecha de Inicio</t>
+  </si>
+  <si>
+    <t>Número de Transacciones</t>
   </si>
 </sst>
 </file>
@@ -77,16 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="[$$-300A]#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="_ [$$-300A]* #,##0.0000_ ;_ [$$-300A]* \-#,##0.0000_ ;_ [$$-300A]* &quot;-&quot;????_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +145,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +175,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,17 +227,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </top>
@@ -303,95 +290,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="6" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19"/>
-    <cellStyle name="Fecha" xfId="9"/>
-    <cellStyle name="Importe" xfId="7"/>
+  <cellStyles count="10">
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Encabezado 4" xfId="4" builtinId="19"/>
+    <cellStyle name="Fecha" xfId="8"/>
+    <cellStyle name="Importe" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Número" xfId="8"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Texto explicativo" xfId="6" builtinId="53"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18"/>
-    <cellStyle name="Título 4 alineado a la derecha" xfId="10"/>
+    <cellStyle name="Número" xfId="7"/>
+    <cellStyle name="Texto explicativo" xfId="5" builtinId="53"/>
+    <cellStyle name="Título 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Título 4 alineado a la derecha" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,7 +661,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +670,7 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="53.140625" customWidth="1"/>
-    <col min="5" max="6" width="26.7109375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="26.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -702,81 +691,83 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="17"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="E9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
